--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>246940.6805553503</v>
+        <v>243693.5956541636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21423013.61052937</v>
+        <v>18287189.23490635</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6425798.487970712</v>
+        <v>3646591.996124525</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5867166.466679026</v>
+        <v>6895070.151362039</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.9901893442951</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>54.55340531488891</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -828,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>90.30617524481291</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>60.94899222869618</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -907,16 +907,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>297.7139089028281</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>314.8435364600423</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>90.30617524481291</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>16.05512456153223</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>21.36712909473917</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>34.75529100421647</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.639117079891</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225758</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>237.9219276436594</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.4550133075761</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>109.1426757626845</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>263.3030874986027</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>54.55340531488891</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.81224361016061</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6292234284552</v>
+        <v>131.7780641526392</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>29.11237900186442</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T19" t="n">
         <v>243.400138899798</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>50.58044123244948</v>
+        <v>286.8611600427158</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2177,7 +2177,7 @@
         <v>84.52551230889576</v>
       </c>
       <c r="H21" t="n">
-        <v>41.26298946135317</v>
+        <v>41.26298946135318</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.71451543789636</v>
+        <v>62.71451543789637</v>
       </c>
       <c r="T21" t="n">
         <v>128.8537753079323</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>29.11237900186398</v>
       </c>
       <c r="H22" t="n">
-        <v>108.5819566055901</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.5652879271376</v>
+        <v>157.5652879271377</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U22" t="n">
         <v>275.6484088706061</v>
@@ -2335,7 +2335,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H23" t="n">
-        <v>286.129242487303</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.57146396962433</v>
+        <v>82.57146396962432</v>
       </c>
       <c r="T23" t="n">
         <v>217.819703146337</v>
@@ -2414,7 +2414,7 @@
         <v>84.52551230889576</v>
       </c>
       <c r="H24" t="n">
-        <v>41.26298946135319</v>
+        <v>41.26298946135318</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.71451543789638</v>
+        <v>62.71451543789637</v>
       </c>
       <c r="T24" t="n">
         <v>128.8537753079323</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>29.11237900186358</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>22.74710563292925</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.5652879271377</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.400138899798</v>
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U26" t="n">
-        <v>17.3614137376846</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>84.52551230889576</v>
       </c>
       <c r="H27" t="n">
-        <v>41.26298946135319</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.71451543789638</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T27" t="n">
         <v>128.8537753079323</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11237900186392</v>
+        <v>22.74710563292927</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.5652879271377</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.400138899798</v>
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>99.79743980592526</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H29" t="n">
         <v>286.1292424873029</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T29" t="n">
         <v>217.819703146337</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9305612960722</v>
+        <v>29.11237900186405</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.74710563292977</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T31" t="n">
         <v>243.400138899798</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>402.7546668990992</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3204,7 +3204,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4604679489429</v>
+        <v>1.759329748161702</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>127.6867765837847</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U34" t="n">
         <v>275.6484088706061</v>
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3731502167427</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.7567945398286</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>29.11237900186437</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T37" t="n">
         <v>243.400138899798</v>
@@ -3514,13 +3514,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>407.9960209872352</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>127.6867765837847</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U40" t="n">
         <v>275.6484088706061</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>127.224474803908</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>403.3312685612727</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>281.4644900613405</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3915,7 +3915,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T43" t="n">
-        <v>127.6867765837847</v>
+        <v>108.5819566055902</v>
       </c>
       <c r="U43" t="n">
         <v>275.6484088706061</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>281.4644900613405</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>383.9457757297316</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>84.10307333667062</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H45" t="n">
-        <v>37.18311833486298</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>54.86789680906531</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T45" t="n">
-        <v>127.1510498014634</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5450127471493</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5764026524035</v>
+        <v>8.12460311709696</v>
       </c>
       <c r="H46" t="n">
-        <v>135.3116756443242</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.97845642156408</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.063515415806609</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
-        <v>151.3932686552011</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T46" t="n">
-        <v>241.8869156041224</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U46" t="n">
-        <v>275.629091126406</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342.5313710854123</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C2" t="n">
-        <v>342.5313710854123</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D2" t="n">
-        <v>342.5313710854123</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E2" t="n">
-        <v>342.5313710854123</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862857</v>
@@ -4330,16 +4330,16 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
         <v>632.7278666362199</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294914</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>512.2184310291448</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>1693.724792654855</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2354.564847196634</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4524,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1224.223655672616</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="C5" t="n">
-        <v>1224.223655672616</v>
+        <v>1668.976949988744</v>
       </c>
       <c r="D5" t="n">
-        <v>788.3138708470601</v>
+        <v>1233.067165163189</v>
       </c>
       <c r="E5" t="n">
-        <v>354.5391260053553</v>
+        <v>799.2924203214839</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>371.4249907306916</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862857</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748445</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682272</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.366119093305</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X5" t="n">
-        <v>1224.223655672616</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="Y5" t="n">
-        <v>1224.223655672616</v>
+        <v>2107.119422805321</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0611657539532</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
         <v>142.0611657539532</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>937.0431390155403</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>937.0431390155403</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
         <v>915.4601803339856</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X8" t="n">
-        <v>1771.628833200795</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.342709500448</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C10" t="n">
-        <v>741.4772326516127</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D10" t="n">
-        <v>575.5992398531354</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E10" t="n">
-        <v>405.8412361038726</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F10" t="n">
-        <v>405.8412361038726</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>791.4099871095563</v>
+        <v>491.9604787180652</v>
       </c>
       <c r="C11" t="n">
-        <v>353.2675142929796</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="D11" t="n">
-        <v>353.2675142929796</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="E11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
@@ -5047,46 +5047,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2449.993599304467</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U11" t="n">
-        <v>2449.993599304467</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V11" t="n">
-        <v>2449.993599304467</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W11" t="n">
-        <v>2045.1381447155</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X11" t="n">
-        <v>1625.995681294811</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y11" t="n">
-        <v>1217.709557594464</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>73.33088177303142</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516122</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348371</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D13" t="n">
-        <v>568.9155211348371</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E13" t="n">
-        <v>568.9155211348371</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F13" t="n">
-        <v>392.2084670965934</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5226,25 +5226,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434796</v>
+        <v>2626.132556724197</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013251</v>
+        <v>2380.253110302652</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2101.820109555757</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136787</v>
+        <v>1814.864601426188</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1542.838197012479</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056491</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705994</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1416.332668825485</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="C14" t="n">
-        <v>978.1901960089081</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D14" t="n">
-        <v>542.2804111833525</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5056663416477</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
@@ -5284,22 +5284,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M14" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5314,16 +5314,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W14" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="X14" t="n">
-        <v>2250.918363010739</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="Y14" t="n">
-        <v>1842.632239310392</v>
+        <v>2307.443876365254</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5427,13 +5427,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5442,13 +5442,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M16" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O16" t="n">
         <v>2154.361157596754</v>
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>454.8843975850366</v>
+        <v>925.4145948223659</v>
       </c>
       <c r="C17" t="n">
-        <v>454.8843975850366</v>
+        <v>487.2721220057892</v>
       </c>
       <c r="D17" t="n">
-        <v>454.8843975850366</v>
+        <v>487.2721220057892</v>
       </c>
       <c r="E17" t="n">
-        <v>454.8843975850366</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="F17" t="n">
-        <v>454.8843975850366</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="G17" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="H17" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I17" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="J17" t="n">
         <v>489.6513714049352</v>
       </c>
       <c r="K17" t="n">
-        <v>490.9991991588111</v>
+        <v>1151.68141381048</v>
       </c>
       <c r="L17" t="n">
-        <v>492.6712986705768</v>
+        <v>1153.353513322245</v>
       </c>
       <c r="M17" t="n">
-        <v>494.5318315565</v>
+        <v>1155.214046208169</v>
       </c>
       <c r="N17" t="n">
-        <v>633.3461040283288</v>
+        <v>1157.104684461313</v>
       </c>
       <c r="O17" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P17" t="n">
-        <v>1957.406188839418</v>
+        <v>1957.406188839417</v>
       </c>
       <c r="Q17" t="n">
         <v>2505.049203913556</v>
@@ -5542,25 +5542,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S17" t="n">
-        <v>2591.463339042984</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="T17" t="n">
-        <v>2371.443436874966</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="U17" t="n">
-        <v>2112.221999068446</v>
+        <v>2541.759702494483</v>
       </c>
       <c r="V17" t="n">
-        <v>1749.605049002272</v>
+        <v>2179.142752428309</v>
       </c>
       <c r="W17" t="n">
-        <v>1344.749594413305</v>
+        <v>2179.142752428309</v>
       </c>
       <c r="X17" t="n">
-        <v>925.6071309926161</v>
+        <v>1760.00028900762</v>
       </c>
       <c r="Y17" t="n">
-        <v>517.3210072922695</v>
+        <v>1351.714165307274</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H18" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I18" t="n">
-        <v>79.75624203114305</v>
+        <v>79.75624203114302</v>
       </c>
       <c r="J18" t="n">
         <v>404.85018795938</v>
       </c>
       <c r="K18" t="n">
-        <v>405.7656494959317</v>
+        <v>1050.983631395003</v>
       </c>
       <c r="L18" t="n">
-        <v>406.9966005067959</v>
+        <v>1052.214582405867</v>
       </c>
       <c r="M18" t="n">
-        <v>408.4330622762662</v>
+        <v>1053.651044175338</v>
       </c>
       <c r="N18" t="n">
-        <v>409.907542914449</v>
+        <v>1055.12552481352</v>
       </c>
       <c r="O18" t="n">
-        <v>411.2564046352117</v>
+        <v>1056.474386534283</v>
       </c>
       <c r="P18" t="n">
         <v>1057.556966982945</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>767.80858270307</v>
+        <v>903.9885648184313</v>
       </c>
       <c r="C19" t="n">
-        <v>595.2468711862949</v>
+        <v>731.4268533016563</v>
       </c>
       <c r="D19" t="n">
-        <v>429.3688783878176</v>
+        <v>565.548860503179</v>
       </c>
       <c r="E19" t="n">
-        <v>259.6108746385549</v>
+        <v>395.7908567539163</v>
       </c>
       <c r="F19" t="n">
-        <v>82.90382060031109</v>
+        <v>219.0838027156725</v>
       </c>
       <c r="G19" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="H19" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I19" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="J19" t="n">
-        <v>140.4130937073627</v>
+        <v>140.4130937073626</v>
       </c>
       <c r="K19" t="n">
-        <v>415.7237510582795</v>
+        <v>415.7237510582793</v>
       </c>
       <c r="L19" t="n">
-        <v>834.6402622675977</v>
+        <v>834.6402622675973</v>
       </c>
       <c r="M19" t="n">
         <v>1294.869171117663</v>
@@ -5688,10 +5688,10 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O19" t="n">
-        <v>2158.196353251645</v>
+        <v>2158.196353251644</v>
       </c>
       <c r="P19" t="n">
-        <v>2506.278091179906</v>
+        <v>2506.278091179905</v>
       </c>
       <c r="Q19" t="n">
         <v>2674.86885820422</v>
@@ -5700,25 +5700,25 @@
         <v>2674.86885820422</v>
       </c>
       <c r="S19" t="n">
-        <v>2515.712001712162</v>
+        <v>2651.891983827523</v>
       </c>
       <c r="T19" t="n">
-        <v>2269.85327555075</v>
+        <v>2406.033257666111</v>
       </c>
       <c r="U19" t="n">
-        <v>1991.420539317814</v>
+        <v>2127.600521433176</v>
       </c>
       <c r="V19" t="n">
-        <v>1704.465031188245</v>
+        <v>1840.645013303606</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.438626774536</v>
+        <v>1568.618608889898</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.046872107949</v>
+        <v>1323.22685422331</v>
       </c>
       <c r="Y19" t="n">
-        <v>959.6272014220572</v>
+        <v>1095.807183537418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.191809238714</v>
+        <v>1756.804084817961</v>
       </c>
       <c r="C20" t="n">
-        <v>1351.049336422137</v>
+        <v>1318.661612001384</v>
       </c>
       <c r="D20" t="n">
-        <v>915.1395515965814</v>
+        <v>882.7518271758288</v>
       </c>
       <c r="E20" t="n">
-        <v>481.3648067548767</v>
+        <v>882.7518271758288</v>
       </c>
       <c r="F20" t="n">
-        <v>53.4973771640844</v>
+        <v>454.8843975850366</v>
       </c>
       <c r="G20" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="H20" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I20" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="J20" t="n">
-        <v>489.6513714049352</v>
+        <v>489.6513714049351</v>
       </c>
       <c r="K20" t="n">
-        <v>490.9991991588111</v>
+        <v>1151.681413810479</v>
       </c>
       <c r="L20" t="n">
-        <v>492.6712986705768</v>
+        <v>1289.83969920455</v>
       </c>
       <c r="M20" t="n">
-        <v>494.5318315565</v>
+        <v>1291.700232090473</v>
       </c>
       <c r="N20" t="n">
-        <v>633.3461040283288</v>
+        <v>1293.590870343617</v>
       </c>
       <c r="O20" t="n">
         <v>1295.376146433873</v>
       </c>
       <c r="P20" t="n">
-        <v>1957.406188839418</v>
+        <v>1957.406188839417</v>
       </c>
       <c r="Q20" t="n">
         <v>2505.049203913556</v>
@@ -5782,22 +5782,22 @@
         <v>2674.86885820422</v>
       </c>
       <c r="T20" t="n">
-        <v>2674.86885820422</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="U20" t="n">
-        <v>2674.86885820422</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="V20" t="n">
-        <v>2674.86885820422</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="W20" t="n">
-        <v>2674.86885820422</v>
+        <v>2454.848956036202</v>
       </c>
       <c r="X20" t="n">
-        <v>2623.777503423968</v>
+        <v>2165.090208518307</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.491379723621</v>
+        <v>1756.804084817961</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>95.17716449878458</v>
       </c>
       <c r="H21" t="n">
-        <v>53.4973771640844</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="I21" t="n">
-        <v>79.75624203114305</v>
+        <v>79.756242031143</v>
       </c>
       <c r="J21" t="n">
-        <v>404.85018795938</v>
+        <v>404.8501879593799</v>
       </c>
       <c r="K21" t="n">
-        <v>405.7656494959317</v>
+        <v>1050.983631395003</v>
       </c>
       <c r="L21" t="n">
-        <v>406.9966005067959</v>
+        <v>1052.214582405867</v>
       </c>
       <c r="M21" t="n">
-        <v>408.4330622762662</v>
+        <v>1053.651044175338</v>
       </c>
       <c r="N21" t="n">
-        <v>409.907542914449</v>
+        <v>1055.12552481352</v>
       </c>
       <c r="O21" t="n">
-        <v>411.2564046352117</v>
+        <v>1056.474386534283</v>
       </c>
       <c r="P21" t="n">
         <v>1057.556966982945</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1013.667308864482</v>
+        <v>767.8085827030695</v>
       </c>
       <c r="C22" t="n">
-        <v>841.105597347707</v>
+        <v>595.2468711862945</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2276045492297</v>
+        <v>429.3688783878172</v>
       </c>
       <c r="E22" t="n">
-        <v>505.4696007999669</v>
+        <v>259.6108746385544</v>
       </c>
       <c r="F22" t="n">
-        <v>328.7625467617231</v>
+        <v>82.90382060031064</v>
       </c>
       <c r="G22" t="n">
-        <v>163.176121210135</v>
+        <v>53.49737716408439</v>
       </c>
       <c r="H22" t="n">
         <v>53.49737716408439</v>
@@ -5913,10 +5913,10 @@
         <v>140.4130937073626</v>
       </c>
       <c r="K22" t="n">
-        <v>415.7237510582795</v>
+        <v>415.7237510582794</v>
       </c>
       <c r="L22" t="n">
-        <v>834.6402622675977</v>
+        <v>834.6402622675974</v>
       </c>
       <c r="M22" t="n">
         <v>1294.869171117663</v>
@@ -5925,10 +5925,10 @@
         <v>1737.855300518818</v>
       </c>
       <c r="O22" t="n">
-        <v>2158.196353251645</v>
+        <v>2158.196353251644</v>
       </c>
       <c r="P22" t="n">
-        <v>2506.278091179906</v>
+        <v>2506.278091179905</v>
       </c>
       <c r="Q22" t="n">
         <v>2674.86885820422</v>
@@ -5940,22 +5940,22 @@
         <v>2515.712001712162</v>
       </c>
       <c r="T22" t="n">
-        <v>2515.712001712162</v>
+        <v>2269.853275550749</v>
       </c>
       <c r="U22" t="n">
-        <v>2237.279265479227</v>
+        <v>1991.420539317814</v>
       </c>
       <c r="V22" t="n">
-        <v>1950.323757349657</v>
+        <v>1704.465031188244</v>
       </c>
       <c r="W22" t="n">
-        <v>1678.297352935949</v>
+        <v>1432.438626774536</v>
       </c>
       <c r="X22" t="n">
-        <v>1432.905598269361</v>
+        <v>1187.046872107949</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.485927583469</v>
+        <v>959.6272014220567</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E23" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F23" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533103</v>
       </c>
       <c r="G23" t="n">
-        <v>391.2632799323576</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H23" t="n">
         <v>102.243843076496</v>
@@ -5992,19 +5992,19 @@
         <v>538.3978373173467</v>
       </c>
       <c r="K23" t="n">
-        <v>1274.908552399303</v>
+        <v>1374.0959570294</v>
       </c>
       <c r="L23" t="n">
-        <v>1276.580651911069</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M23" t="n">
-        <v>2435.489020007542</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N23" t="n">
-        <v>3563.110641697133</v>
+        <v>2582.930975126827</v>
       </c>
       <c r="O23" t="n">
-        <v>3564.895917787389</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P23" t="n">
         <v>4394.729484459996</v>
@@ -6022,19 +6022,19 @@
         <v>4808.766732495544</v>
       </c>
       <c r="U23" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V23" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X23" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y23" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>102.243843076496</v>
       </c>
       <c r="I24" t="n">
-        <v>128.5027079435546</v>
+        <v>102.439034783097</v>
       </c>
       <c r="J24" t="n">
-        <v>453.5966538717914</v>
+        <v>427.5329807113338</v>
       </c>
       <c r="K24" t="n">
-        <v>1099.730097307416</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L24" t="n">
-        <v>1100.96104831828</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M24" t="n">
-        <v>1102.39751008775</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N24" t="n">
         <v>1103.871990725932</v>
       </c>
       <c r="O24" t="n">
-        <v>1105.220852446695</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P24" t="n">
         <v>1106.303432895356</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>816.5550486154807</v>
+        <v>975.7119051075392</v>
       </c>
       <c r="C25" t="n">
-        <v>643.9933370987056</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="D25" t="n">
-        <v>478.1153443002283</v>
+        <v>637.2722007922869</v>
       </c>
       <c r="E25" t="n">
-        <v>308.3573405509656</v>
+        <v>467.5141970430241</v>
       </c>
       <c r="F25" t="n">
-        <v>131.6502865127218</v>
+        <v>290.8071430047803</v>
       </c>
       <c r="G25" t="n">
-        <v>102.243843076496</v>
+        <v>125.2207174531922</v>
       </c>
       <c r="H25" t="n">
         <v>102.243843076496</v>
@@ -6153,10 +6153,10 @@
         <v>464.470216970691</v>
       </c>
       <c r="L25" t="n">
-        <v>883.3867281800091</v>
+        <v>883.3867281800092</v>
       </c>
       <c r="M25" t="n">
-        <v>1343.615637030074</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N25" t="n">
         <v>1786.601766431229</v>
@@ -6165,7 +6165,7 @@
         <v>2206.942819164056</v>
       </c>
       <c r="P25" t="n">
-        <v>2555.024557092317</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q25" t="n">
         <v>2723.615324116631</v>
@@ -6174,25 +6174,25 @@
         <v>2723.615324116631</v>
       </c>
       <c r="S25" t="n">
-        <v>2564.458467624573</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T25" t="n">
-        <v>2318.599741463161</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U25" t="n">
-        <v>2040.167005230225</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V25" t="n">
-        <v>1753.211497100656</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W25" t="n">
-        <v>1481.185092686947</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X25" t="n">
-        <v>1235.79333802036</v>
+        <v>1394.950194512418</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.373667334468</v>
+        <v>1167.530523826526</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1358.23915013573</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C26" t="n">
-        <v>1358.23915013573</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D26" t="n">
-        <v>922.3293653101742</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E26" t="n">
-        <v>488.5546204684694</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F26" t="n">
-        <v>60.68719087767714</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G26" t="n">
-        <v>60.68719087767714</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H26" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I26" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J26" t="n">
-        <v>496.8411851185278</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K26" t="n">
-        <v>606.7378901677074</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L26" t="n">
-        <v>1357.741877278962</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M26" t="n">
-        <v>1359.602410164885</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N26" t="n">
-        <v>2110.606397276139</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O26" t="n">
-        <v>2112.391673366395</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P26" t="n">
-        <v>2863.395660477649</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q26" t="n">
-        <v>2864.539889593193</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R26" t="n">
-        <v>3034.359543883857</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S26" t="n">
-        <v>3034.359543883857</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T26" t="n">
-        <v>3034.359543883857</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U26" t="n">
-        <v>3016.82276233064</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V26" t="n">
-        <v>3016.82276233064</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W26" t="n">
-        <v>2611.967307741673</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X26" t="n">
-        <v>2192.824844320984</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y26" t="n">
-        <v>1784.538720620637</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>566.7972866485875</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C27" t="n">
-        <v>460.3408254852297</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D27" t="n">
-        <v>365.250536631783</v>
+        <v>406.8071888306018</v>
       </c>
       <c r="E27" t="n">
-        <v>271.1301219587367</v>
+        <v>312.6867741575555</v>
       </c>
       <c r="F27" t="n">
-        <v>187.7462835748983</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G27" t="n">
-        <v>102.3669782123773</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H27" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I27" t="n">
-        <v>86.94605574473574</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J27" t="n">
-        <v>412.0400016729726</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K27" t="n">
-        <v>412.9554632095241</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L27" t="n">
-        <v>414.1864142203881</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M27" t="n">
-        <v>415.6228759898582</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N27" t="n">
-        <v>417.0973566280408</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O27" t="n">
-        <v>418.4462183488031</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P27" t="n">
-        <v>1064.746780696538</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q27" t="n">
-        <v>1606.209395688985</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R27" t="n">
-        <v>1723.734165350031</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S27" t="n">
-        <v>1660.386169958216</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T27" t="n">
-        <v>1530.230841364345</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U27" t="n">
-        <v>1353.894674915057</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V27" t="n">
-        <v>1154.777156977056</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W27" t="n">
-        <v>969.45440271025</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X27" t="n">
-        <v>814.5869669491299</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y27" t="n">
-        <v>688.1011877283506</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.9983964166622</v>
+        <v>975.7119051075392</v>
       </c>
       <c r="C28" t="n">
-        <v>602.4366848998872</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="D28" t="n">
-        <v>436.5586921014099</v>
+        <v>637.2722007922869</v>
       </c>
       <c r="E28" t="n">
-        <v>266.8006883521471</v>
+        <v>467.5141970430241</v>
       </c>
       <c r="F28" t="n">
-        <v>90.09363431390332</v>
+        <v>290.8071430047803</v>
       </c>
       <c r="G28" t="n">
-        <v>90.09363431390332</v>
+        <v>125.2207174531922</v>
       </c>
       <c r="H28" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I28" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J28" t="n">
-        <v>147.6029074209553</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K28" t="n">
-        <v>422.9135647718721</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L28" t="n">
-        <v>841.8300759811901</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M28" t="n">
-        <v>1302.058984831256</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N28" t="n">
-        <v>1745.04511423241</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O28" t="n">
-        <v>2165.386166965237</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P28" t="n">
-        <v>2513.467904893498</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q28" t="n">
-        <v>2682.058671917812</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R28" t="n">
-        <v>2682.058671917812</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S28" t="n">
-        <v>2522.901815425754</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T28" t="n">
-        <v>2277.043089264342</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U28" t="n">
-        <v>1998.610353031407</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V28" t="n">
-        <v>1711.654844901837</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W28" t="n">
-        <v>1439.628440488129</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X28" t="n">
-        <v>1194.236685821541</v>
+        <v>1394.950194512418</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.8170151356494</v>
+        <v>1167.530523826526</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>450.5121224869986</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C29" t="n">
-        <v>450.5121224869986</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D29" t="n">
-        <v>450.5121224869986</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E29" t="n">
-        <v>450.5121224869986</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F29" t="n">
-        <v>349.7066277335387</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G29" t="n">
-        <v>349.7066277335387</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H29" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I29" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J29" t="n">
-        <v>496.841185118528</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K29" t="n">
-        <v>1247.845172229783</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L29" t="n">
-        <v>1249.517271741548</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M29" t="n">
-        <v>1251.377804627472</v>
+        <v>2581.040336873681</v>
       </c>
       <c r="N29" t="n">
-        <v>1253.268442880616</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O29" t="n">
-        <v>1565.8928874078</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P29" t="n">
-        <v>2316.896874519055</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q29" t="n">
-        <v>2864.539889593193</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R29" t="n">
-        <v>3034.359543883857</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S29" t="n">
-        <v>2950.95402472262</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T29" t="n">
-        <v>2730.934122554603</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U29" t="n">
-        <v>2471.712684748083</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V29" t="n">
-        <v>2109.095734681909</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.240280092942</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X29" t="n">
-        <v>1285.097816672253</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y29" t="n">
-        <v>876.8116929719064</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>566.7972866485874</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C30" t="n">
-        <v>460.3408254852297</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D30" t="n">
-        <v>365.2505366317829</v>
+        <v>406.8071888306018</v>
       </c>
       <c r="E30" t="n">
-        <v>271.1301219587367</v>
+        <v>312.6867741575555</v>
       </c>
       <c r="F30" t="n">
-        <v>187.7462835748983</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G30" t="n">
-        <v>102.3669782123773</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H30" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I30" t="n">
-        <v>86.94605574473577</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J30" t="n">
-        <v>412.0400016729727</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K30" t="n">
-        <v>1058.173445108596</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L30" t="n">
-        <v>1059.40439611946</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M30" t="n">
-        <v>1060.84085788893</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N30" t="n">
-        <v>1062.315338527113</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O30" t="n">
-        <v>1063.664200247875</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P30" t="n">
-        <v>1064.746780696537</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q30" t="n">
-        <v>1606.209395688984</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R30" t="n">
-        <v>1723.73416535003</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S30" t="n">
-        <v>1660.386169958216</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T30" t="n">
-        <v>1530.230841364345</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U30" t="n">
-        <v>1353.894674915056</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V30" t="n">
-        <v>1154.777156977056</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W30" t="n">
-        <v>969.4544027102497</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X30" t="n">
-        <v>814.5869669491298</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y30" t="n">
-        <v>688.1011877283505</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>911.1783785320242</v>
+        <v>816.5550486154812</v>
       </c>
       <c r="C31" t="n">
-        <v>738.6166670152492</v>
+        <v>643.9933370987061</v>
       </c>
       <c r="D31" t="n">
-        <v>572.7386742167719</v>
+        <v>478.1153443002288</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9806704675091</v>
+        <v>308.3573405509661</v>
       </c>
       <c r="F31" t="n">
-        <v>226.2736164292652</v>
+        <v>131.6502865127223</v>
       </c>
       <c r="G31" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H31" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I31" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J31" t="n">
-        <v>147.6029074209554</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K31" t="n">
-        <v>422.9135647718723</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L31" t="n">
-        <v>841.8300759811905</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M31" t="n">
-        <v>1302.058984831256</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N31" t="n">
-        <v>1745.045114232411</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O31" t="n">
-        <v>2165.386166965237</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P31" t="n">
-        <v>2513.467904893499</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q31" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R31" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S31" t="n">
-        <v>2659.081797541116</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T31" t="n">
-        <v>2413.223071379704</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U31" t="n">
-        <v>2134.790335146768</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V31" t="n">
-        <v>1847.834827017199</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W31" t="n">
-        <v>1575.808422603491</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X31" t="n">
-        <v>1330.416667936903</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y31" t="n">
-        <v>1102.996997251011</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1796.381622952306</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C32" t="n">
-        <v>1358.23915013573</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D32" t="n">
-        <v>922.3293653101742</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E32" t="n">
-        <v>488.5546204684694</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F32" t="n">
-        <v>60.68719087767714</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G32" t="n">
-        <v>60.68719087767714</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H32" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I32" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J32" t="n">
-        <v>496.841185118528</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K32" t="n">
-        <v>498.1890128724038</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L32" t="n">
-        <v>499.8611123841695</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M32" t="n">
-        <v>501.7216452700928</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N32" t="n">
-        <v>1252.725632381347</v>
+        <v>3580.31017736954</v>
       </c>
       <c r="O32" t="n">
-        <v>1565.8928874078</v>
+        <v>4393.205792620784</v>
       </c>
       <c r="P32" t="n">
-        <v>2316.896874519055</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q32" t="n">
-        <v>2864.539889593193</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R32" t="n">
-        <v>3034.359543883857</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S32" t="n">
-        <v>3034.359543883857</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T32" t="n">
-        <v>3034.359543883857</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U32" t="n">
-        <v>3034.359543883857</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V32" t="n">
-        <v>3034.359543883857</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W32" t="n">
-        <v>2629.50408929489</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X32" t="n">
-        <v>2222.681193437214</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y32" t="n">
-        <v>2222.681193437214</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>566.7972866485874</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C33" t="n">
-        <v>460.3408254852297</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D33" t="n">
-        <v>365.2505366317829</v>
+        <v>406.8071888306018</v>
       </c>
       <c r="E33" t="n">
-        <v>271.1301219587367</v>
+        <v>312.6867741575555</v>
       </c>
       <c r="F33" t="n">
-        <v>187.7462835748983</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G33" t="n">
-        <v>102.3669782123773</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H33" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I33" t="n">
-        <v>86.94605574473577</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J33" t="n">
-        <v>87.48167670676037</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K33" t="n">
-        <v>88.39713824331201</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L33" t="n">
-        <v>839.4011253545666</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8375871240369</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N33" t="n">
-        <v>842.3120677622196</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O33" t="n">
-        <v>1593.316054873474</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P33" t="n">
-        <v>1605.485719328613</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q33" t="n">
-        <v>1606.209395688984</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R33" t="n">
-        <v>1723.73416535003</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S33" t="n">
-        <v>1660.386169958216</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T33" t="n">
-        <v>1530.230841364345</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U33" t="n">
-        <v>1353.894674915056</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V33" t="n">
-        <v>1154.777156977056</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W33" t="n">
-        <v>969.4544027102497</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X33" t="n">
-        <v>814.5869669491298</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y33" t="n">
-        <v>688.1011877283505</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1051.03743706631</v>
+        <v>954.5121314865619</v>
       </c>
       <c r="C34" t="n">
-        <v>878.4757255495348</v>
+        <v>781.9504199697868</v>
       </c>
       <c r="D34" t="n">
-        <v>712.5977327510575</v>
+        <v>616.0724271713095</v>
       </c>
       <c r="E34" t="n">
-        <v>542.8397290017948</v>
+        <v>446.3144234220468</v>
       </c>
       <c r="F34" t="n">
-        <v>366.132674963551</v>
+        <v>269.607369383803</v>
       </c>
       <c r="G34" t="n">
-        <v>200.5462494119629</v>
+        <v>104.0209438322148</v>
       </c>
       <c r="H34" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I34" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J34" t="n">
-        <v>147.6029074209554</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K34" t="n">
-        <v>422.9135647718723</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L34" t="n">
-        <v>841.8300759811905</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M34" t="n">
-        <v>1302.058984831256</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N34" t="n">
-        <v>1745.045114232411</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O34" t="n">
-        <v>2165.386166965237</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P34" t="n">
-        <v>2513.467904893499</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q34" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R34" t="n">
-        <v>2682.058671917813</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S34" t="n">
-        <v>2682.058671917813</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="T34" t="n">
-        <v>2553.08212991399</v>
+        <v>2456.556824334242</v>
       </c>
       <c r="U34" t="n">
-        <v>2274.649393681054</v>
+        <v>2178.124088101306</v>
       </c>
       <c r="V34" t="n">
-        <v>1987.693885551485</v>
+        <v>1891.168579971737</v>
       </c>
       <c r="W34" t="n">
-        <v>1715.667481137776</v>
+        <v>1619.142175558028</v>
       </c>
       <c r="X34" t="n">
-        <v>1470.275726471189</v>
+        <v>1373.750420891441</v>
       </c>
       <c r="Y34" t="n">
-        <v>1242.856055785297</v>
+        <v>1146.330750205549</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>462.0742112986293</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C35" t="n">
-        <v>462.0742112986293</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D35" t="n">
-        <v>462.0742112986293</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E35" t="n">
-        <v>462.0742112986293</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F35" t="n">
-        <v>462.0742112986293</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G35" t="n">
-        <v>60.68719087767714</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H35" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I35" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J35" t="n">
-        <v>61.58649766561007</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K35" t="n">
-        <v>62.93432541948595</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L35" t="n">
-        <v>64.60642493125167</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M35" t="n">
-        <v>66.4669578171749</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N35" t="n">
-        <v>814.8889002965454</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O35" t="n">
-        <v>1565.8928874078</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P35" t="n">
-        <v>2316.896874519055</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q35" t="n">
-        <v>2864.539889593193</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R35" t="n">
-        <v>3034.359543883857</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S35" t="n">
-        <v>2950.95402472262</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T35" t="n">
-        <v>2730.934122554603</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U35" t="n">
-        <v>2471.712684748083</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V35" t="n">
-        <v>2109.095734681909</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.240280092942</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X35" t="n">
-        <v>1285.097816672253</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y35" t="n">
-        <v>888.3737817835372</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>566.7972866485874</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C36" t="n">
-        <v>460.3408254852297</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D36" t="n">
-        <v>365.2505366317829</v>
+        <v>406.8071888306018</v>
       </c>
       <c r="E36" t="n">
-        <v>271.1301219587367</v>
+        <v>312.6867741575555</v>
       </c>
       <c r="F36" t="n">
-        <v>187.7462835748983</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G36" t="n">
-        <v>102.3669782123773</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H36" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I36" t="n">
-        <v>86.94605574473577</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J36" t="n">
-        <v>412.0400016729727</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K36" t="n">
-        <v>1058.173445108596</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L36" t="n">
-        <v>1059.40439611946</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M36" t="n">
-        <v>1060.84085788893</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N36" t="n">
-        <v>1062.315338527113</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O36" t="n">
-        <v>1063.664200247875</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P36" t="n">
-        <v>1064.746780696537</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q36" t="n">
-        <v>1606.209395688984</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R36" t="n">
-        <v>1723.73416535003</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S36" t="n">
-        <v>1660.386169958216</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T36" t="n">
-        <v>1530.230841364345</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U36" t="n">
-        <v>1353.894674915056</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V36" t="n">
-        <v>1154.777156977056</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W36" t="n">
-        <v>969.4544027102497</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X36" t="n">
-        <v>814.5869669491298</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y36" t="n">
-        <v>688.1011877283505</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.9983964166627</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C37" t="n">
-        <v>602.4366848998876</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D37" t="n">
-        <v>436.5586921014103</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E37" t="n">
-        <v>266.8006883521476</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F37" t="n">
-        <v>90.09363431390378</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G37" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H37" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I37" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J37" t="n">
-        <v>147.6029074209554</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K37" t="n">
-        <v>422.9135647718723</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L37" t="n">
-        <v>841.8300759811905</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M37" t="n">
-        <v>1302.058984831256</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N37" t="n">
-        <v>1745.045114232411</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O37" t="n">
-        <v>2165.386166965237</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P37" t="n">
-        <v>2513.467904893499</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q37" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R37" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S37" t="n">
-        <v>2522.901815425755</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T37" t="n">
-        <v>2277.043089264343</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U37" t="n">
-        <v>1998.610353031407</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V37" t="n">
-        <v>1711.654844901838</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W37" t="n">
-        <v>1439.628440488129</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X37" t="n">
-        <v>1194.236685821542</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.8170151356499</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1780.631386277913</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C38" t="n">
-        <v>1342.488913461337</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D38" t="n">
-        <v>906.5791286357812</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E38" t="n">
-        <v>472.8043837940764</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F38" t="n">
-        <v>60.68719087767714</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G38" t="n">
-        <v>60.68719087767714</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H38" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I38" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J38" t="n">
-        <v>61.58649766561007</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K38" t="n">
-        <v>62.93432541948595</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L38" t="n">
-        <v>813.9383125307405</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M38" t="n">
-        <v>815.7988454166638</v>
+        <v>3609.7363908905</v>
       </c>
       <c r="N38" t="n">
-        <v>1566.802832527918</v>
+        <v>4737.358012580092</v>
       </c>
       <c r="O38" t="n">
-        <v>2112.391673366395</v>
+        <v>4939.704578579379</v>
       </c>
       <c r="P38" t="n">
-        <v>2863.395660477649</v>
+        <v>4941.228270418589</v>
       </c>
       <c r="Q38" t="n">
-        <v>2864.539889593193</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R38" t="n">
-        <v>3034.359543883857</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S38" t="n">
-        <v>3034.359543883857</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T38" t="n">
-        <v>3034.359543883857</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U38" t="n">
-        <v>3034.359543883857</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V38" t="n">
-        <v>3034.359543883857</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W38" t="n">
-        <v>3034.359543883857</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X38" t="n">
-        <v>2615.217080463168</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y38" t="n">
-        <v>2206.930956762821</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>566.7972866485874</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C39" t="n">
-        <v>460.3408254852297</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D39" t="n">
-        <v>365.2505366317829</v>
+        <v>406.8071888306018</v>
       </c>
       <c r="E39" t="n">
-        <v>271.1301219587367</v>
+        <v>312.6867741575555</v>
       </c>
       <c r="F39" t="n">
-        <v>187.7462835748983</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G39" t="n">
-        <v>102.3669782123773</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H39" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I39" t="n">
-        <v>86.94605574473577</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J39" t="n">
-        <v>87.48167670676037</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K39" t="n">
-        <v>88.39713824331201</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L39" t="n">
-        <v>89.62808925417629</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M39" t="n">
-        <v>840.6320763654309</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N39" t="n">
-        <v>1591.636063476685</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O39" t="n">
-        <v>1604.403138879951</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P39" t="n">
-        <v>1605.485719328613</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q39" t="n">
-        <v>1606.209395688984</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R39" t="n">
-        <v>1723.73416535003</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S39" t="n">
-        <v>1660.386169958216</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T39" t="n">
-        <v>1530.230841364345</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U39" t="n">
-        <v>1353.894674915056</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V39" t="n">
-        <v>1154.777156977056</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W39" t="n">
-        <v>969.4544027102497</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X39" t="n">
-        <v>814.5869669491298</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y39" t="n">
-        <v>688.1011877283505</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1051.03743706631</v>
+        <v>1092.594089265129</v>
       </c>
       <c r="C40" t="n">
-        <v>878.4757255495348</v>
+        <v>920.0323777483537</v>
       </c>
       <c r="D40" t="n">
-        <v>712.5977327510575</v>
+        <v>754.1543849498764</v>
       </c>
       <c r="E40" t="n">
-        <v>542.8397290017948</v>
+        <v>584.3963812006136</v>
       </c>
       <c r="F40" t="n">
-        <v>366.132674963551</v>
+        <v>407.6893271623698</v>
       </c>
       <c r="G40" t="n">
-        <v>200.5462494119629</v>
+        <v>242.1029016107817</v>
       </c>
       <c r="H40" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I40" t="n">
-        <v>60.68719087767714</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J40" t="n">
-        <v>147.6029074209554</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K40" t="n">
-        <v>422.9135647718723</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L40" t="n">
-        <v>841.8300759811905</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M40" t="n">
-        <v>1302.058984831256</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N40" t="n">
-        <v>1745.045114232411</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O40" t="n">
-        <v>2165.386166965237</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P40" t="n">
-        <v>2513.467904893499</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q40" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R40" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S40" t="n">
-        <v>2682.058671917813</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T40" t="n">
-        <v>2553.08212991399</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U40" t="n">
-        <v>2274.649393681054</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V40" t="n">
-        <v>1987.693885551485</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.667481137776</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X40" t="n">
-        <v>1470.275726471189</v>
+        <v>1511.832378670008</v>
       </c>
       <c r="Y40" t="n">
-        <v>1242.856055785297</v>
+        <v>1284.412707984116</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1775.823354505122</v>
+        <v>2523.536700655147</v>
       </c>
       <c r="C41" t="n">
-        <v>1337.680881688545</v>
+        <v>2085.394227838571</v>
       </c>
       <c r="D41" t="n">
-        <v>901.7710968629895</v>
+        <v>1649.484443013015</v>
       </c>
       <c r="E41" t="n">
-        <v>467.9963520212846</v>
+        <v>1215.70969817131</v>
       </c>
       <c r="F41" t="n">
-        <v>60.59103024222131</v>
+        <v>787.8422685805181</v>
       </c>
       <c r="G41" t="n">
-        <v>60.59103024222131</v>
+        <v>386.4552481595659</v>
       </c>
       <c r="H41" t="n">
-        <v>60.59103024222131</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="I41" t="n">
-        <v>60.59103024222131</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="J41" t="n">
-        <v>496.7450244830721</v>
+        <v>538.301676681891</v>
       </c>
       <c r="K41" t="n">
-        <v>498.092852236948</v>
+        <v>1373.999796393945</v>
       </c>
       <c r="L41" t="n">
-        <v>1247.906851484437</v>
+        <v>2450.73186215857</v>
       </c>
       <c r="M41" t="n">
-        <v>1249.76738437036</v>
+        <v>2576.232305100889</v>
       </c>
       <c r="N41" t="n">
-        <v>1251.658022623505</v>
+        <v>2578.122943354033</v>
       </c>
       <c r="O41" t="n">
-        <v>2001.472021870993</v>
+        <v>3560.087886014595</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.088842746263</v>
+        <v>4389.921452687203</v>
       </c>
       <c r="Q41" t="n">
-        <v>2859.731857820401</v>
+        <v>4937.564467761341</v>
       </c>
       <c r="R41" t="n">
-        <v>3029.551512111065</v>
+        <v>5107.384122052005</v>
       </c>
       <c r="S41" t="n">
-        <v>3029.551512111065</v>
+        <v>5023.978602890768</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.551512111065</v>
+        <v>4803.958700722751</v>
       </c>
       <c r="U41" t="n">
-        <v>3029.551512111065</v>
+        <v>4544.737262916231</v>
       </c>
       <c r="V41" t="n">
-        <v>3029.551512111065</v>
+        <v>4182.120312850057</v>
       </c>
       <c r="W41" t="n">
-        <v>3029.551512111065</v>
+        <v>3777.264858261091</v>
       </c>
       <c r="X41" t="n">
-        <v>2610.409048690376</v>
+        <v>3358.122394840402</v>
       </c>
       <c r="Y41" t="n">
-        <v>2202.122924990029</v>
+        <v>2949.836271140055</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>566.7011260131316</v>
+        <v>608.2577782119504</v>
       </c>
       <c r="C42" t="n">
-        <v>460.2446648497739</v>
+        <v>501.8013170485926</v>
       </c>
       <c r="D42" t="n">
-        <v>365.1543759963271</v>
+        <v>406.7110281951459</v>
       </c>
       <c r="E42" t="n">
-        <v>271.0339613232808</v>
+        <v>312.5906135220996</v>
       </c>
       <c r="F42" t="n">
-        <v>187.6501229394424</v>
+        <v>229.2067751382612</v>
       </c>
       <c r="G42" t="n">
-        <v>102.2708175769215</v>
+        <v>143.8274697757403</v>
       </c>
       <c r="H42" t="n">
-        <v>60.59103024222131</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="I42" t="n">
-        <v>86.84989510927994</v>
+        <v>128.4065473080987</v>
       </c>
       <c r="J42" t="n">
-        <v>87.38551607130454</v>
+        <v>453.5004932363356</v>
       </c>
       <c r="K42" t="n">
-        <v>88.30097760785618</v>
+        <v>454.4159547728873</v>
       </c>
       <c r="L42" t="n">
-        <v>89.53192861872046</v>
+        <v>455.6469057837515</v>
       </c>
       <c r="M42" t="n">
-        <v>839.3459278662091</v>
+        <v>457.0833675532219</v>
       </c>
       <c r="N42" t="n">
-        <v>1589.159927113697</v>
+        <v>458.5578481914047</v>
       </c>
       <c r="O42" t="n">
-        <v>1604.306978244495</v>
+        <v>459.9067099121673</v>
       </c>
       <c r="P42" t="n">
-        <v>1605.389558693157</v>
+        <v>1106.2072722599</v>
       </c>
       <c r="Q42" t="n">
-        <v>1606.113235053529</v>
+        <v>1647.669887252348</v>
       </c>
       <c r="R42" t="n">
-        <v>1723.638004714575</v>
+        <v>1765.194656913394</v>
       </c>
       <c r="S42" t="n">
-        <v>1660.29000932276</v>
+        <v>1701.846661521579</v>
       </c>
       <c r="T42" t="n">
-        <v>1530.134680728889</v>
+        <v>1571.691332927708</v>
       </c>
       <c r="U42" t="n">
-        <v>1353.798514279601</v>
+        <v>1395.35516647842</v>
       </c>
       <c r="V42" t="n">
-        <v>1154.6809963416</v>
+        <v>1196.237648540419</v>
       </c>
       <c r="W42" t="n">
-        <v>969.3582420747939</v>
+        <v>1010.914894273613</v>
       </c>
       <c r="X42" t="n">
-        <v>814.4908063136739</v>
+        <v>856.0474585124928</v>
       </c>
       <c r="Y42" t="n">
-        <v>688.0050270928947</v>
+        <v>729.5616792917135</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1050.941276430854</v>
+        <v>952.6388700953871</v>
       </c>
       <c r="C43" t="n">
-        <v>878.379564914079</v>
+        <v>780.0771585786121</v>
       </c>
       <c r="D43" t="n">
-        <v>712.5015721156017</v>
+        <v>614.1991657801348</v>
       </c>
       <c r="E43" t="n">
-        <v>542.743568366339</v>
+        <v>444.441162030872</v>
       </c>
       <c r="F43" t="n">
-        <v>366.0365143280952</v>
+        <v>267.7341079926282</v>
       </c>
       <c r="G43" t="n">
-        <v>200.450088776507</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="H43" t="n">
-        <v>60.59103024222131</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="I43" t="n">
-        <v>60.59103024222131</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="J43" t="n">
-        <v>147.5067467854995</v>
+        <v>189.0633989843184</v>
       </c>
       <c r="K43" t="n">
-        <v>422.8174041364165</v>
+        <v>464.3740563352353</v>
       </c>
       <c r="L43" t="n">
-        <v>841.7339153457347</v>
+        <v>883.2905675445535</v>
       </c>
       <c r="M43" t="n">
-        <v>1301.9628241958</v>
+        <v>1343.519476394619</v>
       </c>
       <c r="N43" t="n">
-        <v>1744.948953596955</v>
+        <v>1786.505605795774</v>
       </c>
       <c r="O43" t="n">
-        <v>2165.290006329782</v>
+        <v>2206.846658528601</v>
       </c>
       <c r="P43" t="n">
-        <v>2513.371744258043</v>
+        <v>2554.928396456862</v>
       </c>
       <c r="Q43" t="n">
-        <v>2681.962511282357</v>
+        <v>2723.519163481176</v>
       </c>
       <c r="R43" t="n">
-        <v>2681.962511282357</v>
+        <v>2723.519163481176</v>
       </c>
       <c r="S43" t="n">
-        <v>2681.962511282357</v>
+        <v>2564.362306989118</v>
       </c>
       <c r="T43" t="n">
-        <v>2552.985969278534</v>
+        <v>2454.683562943067</v>
       </c>
       <c r="U43" t="n">
-        <v>2274.553233045599</v>
+        <v>2176.250826710132</v>
       </c>
       <c r="V43" t="n">
-        <v>1987.597724916029</v>
+        <v>1889.295318580562</v>
       </c>
       <c r="W43" t="n">
-        <v>1715.571320502321</v>
+        <v>1617.268914166854</v>
       </c>
       <c r="X43" t="n">
-        <v>1470.179565835733</v>
+        <v>1371.877159500266</v>
       </c>
       <c r="Y43" t="n">
-        <v>1242.759895149841</v>
+        <v>1144.457488814374</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1796.28546231685</v>
+        <v>2523.536700655147</v>
       </c>
       <c r="C44" t="n">
-        <v>1358.142989500274</v>
+        <v>2085.394227838571</v>
       </c>
       <c r="D44" t="n">
-        <v>922.2332046747183</v>
+        <v>1649.484443013015</v>
       </c>
       <c r="E44" t="n">
-        <v>488.4584598330135</v>
+        <v>1215.70969817131</v>
       </c>
       <c r="F44" t="n">
-        <v>60.59103024222131</v>
+        <v>787.8422685805181</v>
       </c>
       <c r="G44" t="n">
-        <v>60.59103024222131</v>
+        <v>386.4552481595659</v>
       </c>
       <c r="H44" t="n">
-        <v>60.59103024222131</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="I44" t="n">
-        <v>90.72522887302323</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="J44" t="n">
-        <v>157.9653032127628</v>
+        <v>538.301676681891</v>
       </c>
       <c r="K44" t="n">
-        <v>258.7407444568888</v>
+        <v>1373.999796393945</v>
       </c>
       <c r="L44" t="n">
-        <v>530.8669907644617</v>
+        <v>2450.73186215857</v>
       </c>
       <c r="M44" t="n">
-        <v>1280.68099001195</v>
+        <v>2452.592395044493</v>
       </c>
       <c r="N44" t="n">
-        <v>2030.494989259439</v>
+        <v>2578.122943354033</v>
       </c>
       <c r="O44" t="n">
-        <v>2780.308988506928</v>
+        <v>3560.087886014595</v>
       </c>
       <c r="P44" t="n">
-        <v>2894.233573436278</v>
+        <v>4389.921452687203</v>
       </c>
       <c r="Q44" t="n">
-        <v>2979.786192212467</v>
+        <v>4937.564467761341</v>
       </c>
       <c r="R44" t="n">
-        <v>3029.551512111065</v>
+        <v>5107.384122052005</v>
       </c>
       <c r="S44" t="n">
-        <v>3029.551512111065</v>
+        <v>5023.978602890768</v>
       </c>
       <c r="T44" t="n">
-        <v>3029.551512111065</v>
+        <v>4803.958700722751</v>
       </c>
       <c r="U44" t="n">
-        <v>3029.551512111065</v>
+        <v>4544.737262916231</v>
       </c>
       <c r="V44" t="n">
-        <v>3029.551512111065</v>
+        <v>4182.120312850057</v>
       </c>
       <c r="W44" t="n">
-        <v>3029.551512111065</v>
+        <v>3777.264858261091</v>
       </c>
       <c r="X44" t="n">
-        <v>2610.409048690376</v>
+        <v>3358.122394840402</v>
       </c>
       <c r="Y44" t="n">
-        <v>2222.585032801758</v>
+        <v>2949.836271140055</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1882.28850833179</v>
+        <v>608.2577782119504</v>
       </c>
       <c r="C45" t="n">
-        <v>1775.832047168432</v>
+        <v>501.8013170485926</v>
       </c>
       <c r="D45" t="n">
-        <v>1680.741758314986</v>
+        <v>406.7110281951459</v>
       </c>
       <c r="E45" t="n">
-        <v>1586.621343641939</v>
+        <v>312.5906135220996</v>
       </c>
       <c r="F45" t="n">
-        <v>1503.237505258101</v>
+        <v>229.2067751382612</v>
       </c>
       <c r="G45" t="n">
-        <v>1418.284905928131</v>
+        <v>143.8274697757403</v>
       </c>
       <c r="H45" t="n">
-        <v>1380.72620053938</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="I45" t="n">
-        <v>1395.320446950577</v>
+        <v>128.4065473080987</v>
       </c>
       <c r="J45" t="n">
-        <v>1759.926499552914</v>
+        <v>453.5004932363356</v>
       </c>
       <c r="K45" t="n">
-        <v>1828.374444791259</v>
+        <v>1099.633936671959</v>
       </c>
       <c r="L45" t="n">
-        <v>1920.411154165306</v>
+        <v>1100.864887682823</v>
       </c>
       <c r="M45" t="n">
-        <v>2027.813652913689</v>
+        <v>1102.301349452293</v>
       </c>
       <c r="N45" t="n">
-        <v>2138.058776217832</v>
+        <v>1103.775830090476</v>
       </c>
       <c r="O45" t="n">
-        <v>2238.911525908044</v>
+        <v>1105.124691811239</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.854748869911</v>
+        <v>1106.2072722599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2886.060752845147</v>
+        <v>1647.669887252348</v>
       </c>
       <c r="R45" t="n">
-        <v>3029.551512111065</v>
+        <v>1765.194656913394</v>
       </c>
       <c r="S45" t="n">
-        <v>2974.12939412211</v>
+        <v>1701.846661521579</v>
       </c>
       <c r="T45" t="n">
-        <v>2845.693990282248</v>
+        <v>1571.691332927708</v>
       </c>
       <c r="U45" t="n">
-        <v>2669.385896598259</v>
+        <v>1395.35516647842</v>
       </c>
       <c r="V45" t="n">
-        <v>2470.268378660258</v>
+        <v>1196.237648540419</v>
       </c>
       <c r="W45" t="n">
-        <v>2284.945624393452</v>
+        <v>1010.914894273613</v>
       </c>
       <c r="X45" t="n">
-        <v>2130.078188632333</v>
+        <v>856.0474585124928</v>
       </c>
       <c r="Y45" t="n">
-        <v>2003.592409411553</v>
+        <v>729.5616792917135</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1125.158958727093</v>
+        <v>795.2591143590485</v>
       </c>
       <c r="C46" t="n">
-        <v>952.597247210318</v>
+        <v>622.6974028422734</v>
       </c>
       <c r="D46" t="n">
-        <v>786.7192544118407</v>
+        <v>456.8194100437961</v>
       </c>
       <c r="E46" t="n">
-        <v>616.961250662578</v>
+        <v>287.0614062945334</v>
       </c>
       <c r="F46" t="n">
-        <v>440.2541966243342</v>
+        <v>110.3543522562896</v>
       </c>
       <c r="G46" t="n">
-        <v>275.025507076452</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="H46" t="n">
-        <v>138.3470468296598</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="I46" t="n">
-        <v>60.59103024222131</v>
+        <v>102.1476824410401</v>
       </c>
       <c r="J46" t="n">
-        <v>172.2953727318071</v>
+        <v>189.0633989843184</v>
       </c>
       <c r="K46" t="n">
-        <v>488.3413572775056</v>
+        <v>464.3740563352353</v>
       </c>
       <c r="L46" t="n">
-        <v>959.3850626138546</v>
+        <v>883.2905675445535</v>
       </c>
       <c r="M46" t="n">
-        <v>1474.574788898945</v>
+        <v>1343.519476394619</v>
       </c>
       <c r="N46" t="n">
-        <v>1971.214890339986</v>
+        <v>1786.505605795774</v>
       </c>
       <c r="O46" t="n">
-        <v>2441.11407039867</v>
+        <v>2206.846658528601</v>
       </c>
       <c r="P46" t="n">
-        <v>2831.601347685254</v>
+        <v>2554.928396456862</v>
       </c>
       <c r="Q46" t="n">
-        <v>3029.551512111065</v>
+        <v>2723.519163481176</v>
       </c>
       <c r="R46" t="n">
-        <v>3024.436850074898</v>
+        <v>2702.319389860198</v>
       </c>
       <c r="S46" t="n">
-        <v>2871.514356483785</v>
+        <v>2543.16253336814</v>
       </c>
       <c r="T46" t="n">
-        <v>2627.184138701843</v>
+        <v>2297.303807206728</v>
       </c>
       <c r="U46" t="n">
-        <v>2348.770915341837</v>
+        <v>2018.871070973793</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.815407212268</v>
+        <v>1731.915562844223</v>
       </c>
       <c r="W46" t="n">
-        <v>1789.78900279856</v>
+        <v>1459.889158430515</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.397248131972</v>
+        <v>1214.497403763927</v>
       </c>
       <c r="Y46" t="n">
-        <v>1316.97757744608</v>
+        <v>987.0777330780356</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O2" t="n">
         <v>667.5152066078571</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984387</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.5152066078572</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.544895229762</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,19 +8932,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9166,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>667.3557723754228</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>138.306701230994</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>666.9139053689786</v>
+        <v>137.8648342245492</v>
       </c>
       <c r="P17" t="n">
         <v>667.1781318851852</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>651.735335251587</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>667.3557723754228</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>137.8648342245503</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>138.306701230994</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>666.9139053689786</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.1781318851852</v>
+        <v>667.1781318851854</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>651.7353352515876</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>651.735335251587</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>742.5887750788696</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>129.648263832054</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>651.7353352515887</v>
+        <v>678.0622778379085</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>109.6453306013172</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>756.9008965651407</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>756.6801503617276</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>757.0508033050946</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>651.7353352515886</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>757.2284437953321</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>313.9789580170991</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>757.0508033050944</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>651.7353352515871</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>756.6801503617272</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>314.5272514507039</v>
+        <v>819.3033728898872</v>
       </c>
       <c r="P32" t="n">
-        <v>757.0508033050944</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10427,13 +10427,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L33" t="n">
-        <v>757.3465011115054</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>757.2273993843354</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>11.19907475401687</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>754.0720244709352</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O35" t="n">
-        <v>756.7865767888878</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>757.0508033050944</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>651.7353352515871</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>756.9008965651403</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>756.6801503617271</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>549.2965300487078</v>
+        <v>202.5871615242741</v>
       </c>
       <c r="P38" t="n">
-        <v>757.0508033050944</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>757.1389144866508</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>757.1005115889615</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>11.53354917424547</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>755.6988886219424</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>124.8887980367635</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>755.5845688456898</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>312.2152818546049</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11138,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>755.9369065434529</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>755.8985036457634</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>13.93756506064165</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>148.5913134041951</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>616.8729485785408</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>614.5992701162165</v>
+        <v>124.8887980367635</v>
       </c>
       <c r="O44" t="n">
-        <v>622.5566445851082</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>651.7353352515873</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>517.2703060740068</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.0463854357635</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>369.0353499799954</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22716,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.1369608195777</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>125.8748463920563</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>82.5403166029264</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22953,10 +22953,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.365527395797</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>410.1835578825608</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>369.4479714591266</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23190,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.29624514453963</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>184.1146471363992</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>132.9819840857117</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.79268646174607</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>170.4579605898082</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>369.0353499799954</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23554,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>360.2243311698981</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H17" t="n">
         <v>286.1292424873029</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>124.851159275816</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>134.8181822942078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.4604679489429</v>
@@ -23940,7 +23940,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.1292424873029</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962432</v>
       </c>
       <c r="T20" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6292234284552</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>364.3705975540329</v>
+        <v>128.0898787437666</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134.8181822942082</v>
       </c>
       <c r="H22" t="n">
-        <v>29.87851134335277</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
-        <v>87.62897272389382</v>
+        <v>87.62897272389384</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.98777588476758</v>
+        <v>20.9877758847676</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>134.8181822942086</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4604679489429</v>
+        <v>115.7133623160136</v>
       </c>
       <c r="I25" t="n">
-        <v>87.62897272389385</v>
+        <v>87.62897272389384</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.98777588476762</v>
+        <v>20.9877758847676</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.5652879271377</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.129242487303</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.57146396962433</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>239.2678096907706</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>109.3480889470789</v>
+        <v>115.7133623160136</v>
       </c>
       <c r="I28" t="n">
-        <v>87.62897272389385</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.98777588476762</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>323.7913154889591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.8181822942082</v>
       </c>
       <c r="H31" t="n">
         <v>138.4604679489429</v>
@@ -24888,7 +24888,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S31" t="n">
-        <v>134.8181822942079</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>12.19637188738318</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.7011382007812</v>
       </c>
       <c r="I34" t="n">
         <v>87.62897272389382</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T34" t="n">
-        <v>115.7133623160133</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.44646792351449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>134.8181822942078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.4604679489429</v>
@@ -25362,7 +25362,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>15.5927343076491</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>157.5652879271376</v>
       </c>
       <c r="T40" t="n">
-        <v>115.7133623160133</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>115.7133623160137</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>20.25748673361164</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.1292424873029</v>
+        <v>4.664752425962433</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I43" t="n">
         <v>87.62897272389382</v>
@@ -25836,10 +25836,10 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>115.7133623160133</v>
+        <v>134.8181822942078</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>278.0434075022746</v>
+        <v>4.664752425962433</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.5799136489767</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>20.25748673361147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>155.8059581789753</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474497.7176136893</v>
+        <v>474497.7176136892</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474497.7176136893</v>
+        <v>474497.7176136891</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>513993.1977427867</v>
+        <v>739135.2831171853</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>513993.1977427866</v>
+        <v>739135.2831171856</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>513993.1977427865</v>
+        <v>739135.2831171855</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>513993.1977427866</v>
+        <v>739135.2831171856</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>513993.1977427866</v>
+        <v>739135.2831171853</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>513472.2268548076</v>
+        <v>738614.3122292064</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511714.116015127</v>
+        <v>738614.3122292063</v>
       </c>
     </row>
   </sheetData>
@@ -26337,25 +26337,25 @@
         <v>263490.9151589826</v>
       </c>
       <c r="J2" t="n">
-        <v>183257.5698720274</v>
+        <v>263490.9151589827</v>
       </c>
       <c r="K2" t="n">
-        <v>183257.5698720275</v>
+        <v>263490.9151589826</v>
       </c>
       <c r="L2" t="n">
-        <v>183257.5698720274</v>
+        <v>263490.9151589826</v>
       </c>
       <c r="M2" t="n">
-        <v>183257.5698720274</v>
+        <v>263490.9151589826</v>
       </c>
       <c r="N2" t="n">
-        <v>183257.5698720274</v>
+        <v>263490.9151589826</v>
       </c>
       <c r="O2" t="n">
-        <v>183071.9127254741</v>
+        <v>263305.2580124292</v>
       </c>
       <c r="P2" t="n">
-        <v>188864.0313649231</v>
+        <v>263305.2580124292</v>
       </c>
     </row>
     <row r="3">
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>162033.8620236796</v>
+        <v>162033.8620236799</v>
       </c>
       <c r="J3" t="n">
-        <v>38738.23986885927</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>3.258877967482476e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>130717.173622976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="C4" t="n">
-        <v>52276.2688617209</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="D4" t="n">
         <v>52276.26886172089</v>
@@ -26435,31 +26435,31 @@
         <v>52118.62508742069</v>
       </c>
       <c r="H4" t="n">
-        <v>52118.62508742069</v>
+        <v>52118.62508742071</v>
       </c>
       <c r="I4" t="n">
-        <v>81214.38611790826</v>
+        <v>81214.38611790823</v>
       </c>
       <c r="J4" t="n">
-        <v>56410.07673932711</v>
+        <v>81214.38611790822</v>
       </c>
       <c r="K4" t="n">
-        <v>56410.07673932708</v>
+        <v>81214.38611790822</v>
       </c>
       <c r="L4" t="n">
-        <v>56410.07673932707</v>
+        <v>81214.38611790823</v>
       </c>
       <c r="M4" t="n">
-        <v>56410.07673932708</v>
+        <v>81214.38611790822</v>
       </c>
       <c r="N4" t="n">
-        <v>56410.07673932707</v>
+        <v>81214.38611790822</v>
       </c>
       <c r="O4" t="n">
-        <v>56352.68043751537</v>
+        <v>81156.98981609652</v>
       </c>
       <c r="P4" t="n">
-        <v>40125.99896514095</v>
+        <v>81156.98981609651</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
         <v>40716.04550407668</v>
       </c>
       <c r="H5" t="n">
-        <v>40716.04550407668</v>
+        <v>40716.04550407667</v>
       </c>
       <c r="I5" t="n">
+        <v>77763.35959750946</v>
+      </c>
+      <c r="J5" t="n">
         <v>77763.35959750945</v>
       </c>
-      <c r="J5" t="n">
-        <v>46180.30392640716</v>
-      </c>
       <c r="K5" t="n">
-        <v>46180.30392640716</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="L5" t="n">
-        <v>46180.30392640716</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="M5" t="n">
-        <v>46180.30392640716</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="N5" t="n">
-        <v>46180.30392640716</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="O5" t="n">
-        <v>46107.22184346073</v>
+        <v>77690.27751456301</v>
       </c>
       <c r="P5" t="n">
-        <v>50388.67788301275</v>
+        <v>77690.27751456301</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181092.8777785709</v>
+        <v>-181587.7680071521</v>
       </c>
       <c r="C6" t="n">
-        <v>42606.82080547401</v>
+        <v>42111.93057689275</v>
       </c>
       <c r="D6" t="n">
-        <v>42606.82080547401</v>
+        <v>42111.93057689275</v>
       </c>
       <c r="E6" t="n">
-        <v>76234.42080547404</v>
+        <v>75739.53057689269</v>
       </c>
       <c r="F6" t="n">
-        <v>76234.42080547402</v>
+        <v>75739.53057689271</v>
       </c>
       <c r="G6" t="n">
-        <v>74142.15868002101</v>
+        <v>73648.67143486912</v>
       </c>
       <c r="H6" t="n">
-        <v>76541.54032332401</v>
+        <v>76048.05307817209</v>
       </c>
       <c r="I6" t="n">
-        <v>-57520.69258011472</v>
+        <v>-57543.60630404619</v>
       </c>
       <c r="J6" t="n">
-        <v>41928.94933743388</v>
+        <v>-70161.0929980722</v>
       </c>
       <c r="K6" t="n">
-        <v>80667.18920629294</v>
+        <v>104490.2557196338</v>
       </c>
       <c r="L6" t="n">
-        <v>80667.18920629317</v>
+        <v>104490.2557196338</v>
       </c>
       <c r="M6" t="n">
-        <v>80667.1892062932</v>
+        <v>104490.2557196338</v>
       </c>
       <c r="N6" t="n">
-        <v>80667.1892062932</v>
+        <v>104490.2557196338</v>
       </c>
       <c r="O6" t="n">
-        <v>80612.01044449804</v>
+        <v>104434.1486721058</v>
       </c>
       <c r="P6" t="n">
-        <v>-32367.81910620662</v>
+        <v>104434.1486721058</v>
       </c>
     </row>
   </sheetData>
@@ -26752,16 +26752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740008</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998739845</v>
+        <v>2.662332998740008</v>
       </c>
       <c r="J3" t="n">
-        <v>2.662332998739845</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="K3" t="n">
         <v>2.662332998740292</v>
@@ -26779,7 +26779,7 @@
         <v>2.662332998740292</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0593990332368</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>668.717214551055</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="H4" t="n">
-        <v>668.717214551055</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="I4" t="n">
         <v>1278.048038456199</v>
       </c>
       <c r="J4" t="n">
-        <v>758.5898859709642</v>
+        <v>1278.048038456199</v>
       </c>
       <c r="K4" t="n">
-        <v>758.5898859709642</v>
+        <v>1278.048038456199</v>
       </c>
       <c r="L4" t="n">
-        <v>758.5898859709642</v>
+        <v>1278.048038456199</v>
       </c>
       <c r="M4" t="n">
-        <v>758.5898859709642</v>
+        <v>1278.048038456199</v>
       </c>
       <c r="N4" t="n">
-        <v>758.5898859709642</v>
+        <v>1278.048038456199</v>
       </c>
       <c r="O4" t="n">
-        <v>757.3878780277663</v>
+        <v>1276.846030513001</v>
       </c>
       <c r="P4" t="n">
-        <v>757.3878780277663</v>
+        <v>1276.846030513001</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.476419235288631e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>196.3970660344965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>609.3308239051445</v>
+        <v>609.3308239051446</v>
       </c>
       <c r="J4" t="n">
-        <v>148.0570541226218</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
@@ -32244,7 +32244,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
         <v>1.909735609237095</v>
@@ -32259,16 +32259,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H18" t="n">
         <v>0.05530620059647288</v>
@@ -32317,7 +32317,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458851</v>
@@ -32335,19 +32335,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R18" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T18" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J19" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N19" t="n">
         <v>0.7346729732425471</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R19" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T19" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01070284622609162</v>
+        <v>0.01070284622609048</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1096105239129608</v>
+        <v>0.1096105239129491</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313535</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948816475</v>
       </c>
       <c r="K20" t="n">
-        <v>1.361442175632203</v>
+        <v>1.361442175632058</v>
       </c>
       <c r="L20" t="n">
-        <v>1.688989405823955</v>
+        <v>1.688989405823774</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397011</v>
       </c>
       <c r="N20" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609236891</v>
       </c>
       <c r="O20" t="n">
-        <v>1.803309182076396</v>
+        <v>1.803309182076203</v>
       </c>
       <c r="P20" t="n">
-        <v>1.539082665869759</v>
+        <v>1.539082665869594</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.155786985397852</v>
+        <v>1.155786985397729</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642496565</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377037</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471109</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.000856227698087238</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582195489</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.05530620059646697</v>
       </c>
       <c r="I21" t="n">
-        <v>0.19716334000105</v>
+        <v>0.1971633400010289</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747722502</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.924708622779348</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859458851</v>
+        <v>1.243384859458718</v>
       </c>
       <c r="M21" t="n">
-        <v>1.450971484313459</v>
+        <v>1.450971484313304</v>
       </c>
       <c r="N21" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002677</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628912</v>
+        <v>1.362486586628766</v>
       </c>
       <c r="P21" t="n">
-        <v>1.093515604709008</v>
+        <v>1.093515604708891</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225974454</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3555470370770528</v>
+        <v>0.3555470370770148</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.1063677382043767</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02308192477209743</v>
+        <v>0.02308192477209497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.000376745235670756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358383621</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758635622</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775729</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.339425634937722</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.5577805856376605</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124818704</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425782615</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.7346729732424686</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.678589401055896</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625448697</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097412</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2158671969142538</v>
+        <v>0.2158671969142308</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.08366708784564907</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.02051305753127547</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195481978</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01070284622608982</v>
+        <v>0.01070284622609048</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1096105239129424</v>
+        <v>0.1096105239129491</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313282</v>
+        <v>0.4126214791313535</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948815917</v>
+        <v>0.9083906948816475</v>
       </c>
       <c r="K23" t="n">
-        <v>1.361442175631974</v>
+        <v>1.361442175632058</v>
       </c>
       <c r="L23" t="n">
-        <v>1.688989405823671</v>
+        <v>1.688989405823774</v>
       </c>
       <c r="M23" t="n">
-        <v>1.879326147396895</v>
+        <v>1.879326147397011</v>
       </c>
       <c r="N23" t="n">
-        <v>1.909735609236773</v>
+        <v>1.909735609236891</v>
       </c>
       <c r="O23" t="n">
-        <v>1.803309182076092</v>
+        <v>1.803309182076203</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5390826658695</v>
+        <v>1.539082665869594</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.155786985397658</v>
+        <v>1.155786985397729</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642496152</v>
+        <v>0.6723126642496565</v>
       </c>
       <c r="S23" t="n">
-        <v>0.243891108377022</v>
+        <v>0.243891108377037</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04685170935470821</v>
+        <v>0.04685170935471109</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0008562276980871855</v>
+        <v>0.000856227698087238</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005726527582195138</v>
+        <v>0.005726527582195489</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05530620059646358</v>
+        <v>0.05530620059646697</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1971633400010168</v>
+        <v>0.1971633400010289</v>
       </c>
       <c r="J24" t="n">
-        <v>0.541031274772217</v>
+        <v>0.5410312747722502</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227792912</v>
+        <v>0.924708622779348</v>
       </c>
       <c r="L24" t="n">
-        <v>1.243384859458642</v>
+        <v>1.243384859458718</v>
       </c>
       <c r="M24" t="n">
-        <v>1.450971484313215</v>
+        <v>1.450971484313304</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382002586</v>
+        <v>1.489374382002677</v>
       </c>
       <c r="O24" t="n">
-        <v>1.362486586628683</v>
+        <v>1.362486586628766</v>
       </c>
       <c r="P24" t="n">
-        <v>1.093515604708824</v>
+        <v>1.093515604708891</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225974004</v>
+        <v>0.7309862225974454</v>
       </c>
       <c r="R24" t="n">
-        <v>0.355547037076993</v>
+        <v>0.3555470370770148</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1063677382043701</v>
+        <v>0.1063677382043767</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02308192477209355</v>
+        <v>0.02308192477209497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0003767452356707329</v>
+        <v>0.000376745235670756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004800928358383326</v>
+        <v>0.004800928358383621</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04268461758635361</v>
+        <v>0.04268461758635622</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1443770091775641</v>
+        <v>0.1443770091775729</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3394256349377011</v>
+        <v>0.339425634937722</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5577805856376263</v>
+        <v>0.5577805856376605</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7137671124818267</v>
+        <v>0.7137671124818704</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425782153</v>
+        <v>0.7525673425782615</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7346729732424235</v>
+        <v>0.7346729732424686</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6785894010558544</v>
+        <v>0.678589401055896</v>
       </c>
       <c r="P25" t="n">
-        <v>0.580650462544834</v>
+        <v>0.5806504625448697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4020122828097166</v>
+        <v>0.4020122828097412</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2158671969142175</v>
+        <v>0.2158671969142308</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08366708784564393</v>
+        <v>0.08366708784564907</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02051305753127421</v>
+        <v>0.02051305753127547</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002618688195481817</v>
+        <v>0.0002618688195481978</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01070284622608982</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1096105239129424</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313282</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948815917</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
-        <v>1.361442175631974</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L26" t="n">
-        <v>1.688989405823671</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147396895</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N26" t="n">
-        <v>1.909735609236773</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O26" t="n">
-        <v>1.803309182076092</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5390826658695</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.155786985397658</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642496152</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S26" t="n">
-        <v>0.243891108377022</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04685170935470821</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008562276980871855</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726527582195138</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05530620059646358</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1971633400010168</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J27" t="n">
-        <v>0.541031274772217</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227792912</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458642</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M27" t="n">
-        <v>1.450971484313215</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382002586</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>1.362486586628683</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P27" t="n">
-        <v>1.093515604708824</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225974004</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R27" t="n">
-        <v>0.355547037076993</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1063677382043701</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02308192477209355</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0003767452356707329</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004800928358383326</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04268461758635361</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1443770091775641</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3394256349377011</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5577805856376263</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124818267</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425782153</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7346729732424235</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010558544</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P28" t="n">
-        <v>0.580650462544834</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4020122828097166</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2158671969142175</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08366708784564393</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02051305753127421</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0002618688195481817</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8002387900833634</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H44" t="n">
-        <v>8.195445508941248</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I44" t="n">
-        <v>30.8512059546889</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983792</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
-        <v>101.7933749940667</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L44" t="n">
-        <v>126.2836828660805</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5149294492255</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
-        <v>142.7886079115499</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O44" t="n">
-        <v>134.8312334426584</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P44" t="n">
-        <v>115.0753383124753</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261487</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>50.26799989757412</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S44" t="n">
-        <v>18.23544142902466</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T44" t="n">
-        <v>3.503045303589925</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06401910320666905</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4281654998073395</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H45" t="n">
-        <v>4.135177327086675</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I45" t="n">
-        <v>14.74166304161235</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J45" t="n">
-        <v>40.45225013749957</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>69.13933862459132</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L45" t="n">
-        <v>92.966373105098</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M45" t="n">
-        <v>108.487372473114</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N45" t="n">
-        <v>111.3587104082256</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>101.8714643335471</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461381</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.65495046663514</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523114</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>7.952986367035446</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T45" t="n">
-        <v>1.725807431240986</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02816878288206182</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3589595720271482</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H46" t="n">
-        <v>3.191476922205011</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I46" t="n">
-        <v>10.79489331150734</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J46" t="n">
-        <v>25.37844174231938</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>41.7045757318814</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L46" t="n">
-        <v>53.36749855392713</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26854454967379</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N46" t="n">
-        <v>54.93060432666356</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O46" t="n">
-        <v>50.73730387161912</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P46" t="n">
-        <v>43.41452860226526</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.05796925401875</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R46" t="n">
-        <v>16.14012766587523</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>6.255686359782209</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T46" t="n">
-        <v>1.533736353206906</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01957961301966266</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O2" t="n">
         <v>667.5152066078571</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984387</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.5152066078572</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.544895229762</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35415,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35652,19 +35652,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35810,13 +35810,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35886,19 +35886,19 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K17" t="n">
-        <v>1.361442175632192</v>
+        <v>668.717214551055</v>
       </c>
       <c r="L17" t="n">
-        <v>1.688989405823975</v>
+        <v>1.688989405824032</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397194</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N17" t="n">
-        <v>140.216436840231</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O17" t="n">
-        <v>668.717214551055</v>
+        <v>139.6681434066256</v>
       </c>
       <c r="P17" t="n">
         <v>668.7172145510549</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J18" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743666</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M18" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628904</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P18" t="n">
-        <v>652.828850856296</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q18" t="n">
         <v>546.9319343358052</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.79365307401851</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K19" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817341</v>
       </c>
       <c r="L19" t="n">
-        <v>423.1479911205234</v>
+        <v>423.1479911205233</v>
       </c>
       <c r="M19" t="n">
-        <v>464.8776857071369</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N19" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O19" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P19" t="n">
         <v>351.5977150790518</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>440.5595901422736</v>
+        <v>440.5595901422735</v>
       </c>
       <c r="K20" t="n">
-        <v>1.361442175632192</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="L20" t="n">
-        <v>1.688989405823975</v>
+        <v>139.5538236303742</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397194</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N20" t="n">
-        <v>140.216436840231</v>
+        <v>1.909735609236805</v>
       </c>
       <c r="O20" t="n">
-        <v>668.717214551055</v>
+        <v>1.803309182076191</v>
       </c>
       <c r="P20" t="n">
         <v>668.7172145510549</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632184</v>
       </c>
       <c r="J21" t="n">
-        <v>328.3777231598353</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743669</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458729</v>
       </c>
       <c r="M21" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N21" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628904</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P21" t="n">
-        <v>652.828850856296</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q21" t="n">
         <v>546.9319343358052</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401838</v>
       </c>
       <c r="K22" t="n">
-        <v>278.0915730817343</v>
+        <v>278.0915730817342</v>
       </c>
       <c r="L22" t="n">
-        <v>423.1479911205234</v>
+        <v>423.1479911205233</v>
       </c>
       <c r="M22" t="n">
         <v>464.8776857071369</v>
       </c>
       <c r="N22" t="n">
-        <v>447.4607367688432</v>
+        <v>447.4607367688429</v>
       </c>
       <c r="O22" t="n">
         <v>424.5869219523504</v>
@@ -36360,22 +36360,22 @@
         <v>440.5595901422735</v>
       </c>
       <c r="K23" t="n">
-        <v>743.9502172545016</v>
+        <v>844.1395148606604</v>
       </c>
       <c r="L23" t="n">
-        <v>1.688989405823577</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M23" t="n">
-        <v>1170.614513228761</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N23" t="n">
-        <v>1139.011739080395</v>
+        <v>131.557999441291</v>
       </c>
       <c r="O23" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652139</v>
       </c>
       <c r="P23" t="n">
-        <v>838.2157239117241</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q23" t="n">
         <v>553.17476270115</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.52410592632182</v>
+        <v>0.1971633400010262</v>
       </c>
       <c r="J24" t="n">
         <v>328.3777231598352</v>
       </c>
       <c r="K24" t="n">
-        <v>652.6600438743679</v>
+        <v>678.9869864606878</v>
       </c>
       <c r="L24" t="n">
         <v>1.243384859458729</v>
       </c>
       <c r="M24" t="n">
-        <v>1.450971484313186</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382002552</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36248658662862</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P24" t="n">
-        <v>1.093515604708728</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q24" t="n">
         <v>546.9319343358052</v>
@@ -36521,16 +36521,16 @@
         <v>278.0915730817342</v>
       </c>
       <c r="L25" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M25" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071369</v>
       </c>
       <c r="N25" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O25" t="n">
-        <v>424.5869219523502</v>
+        <v>424.5869219523504</v>
       </c>
       <c r="P25" t="n">
         <v>351.5977150790518</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>440.5595901422734</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K26" t="n">
-        <v>111.0067727769492</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L26" t="n">
-        <v>758.5898859709642</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147396796</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N26" t="n">
-        <v>758.5898859709641</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O26" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P26" t="n">
-        <v>758.5898859709641</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R26" t="n">
         <v>171.535004334004</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.52410592632183</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J27" t="n">
-        <v>328.3777231598352</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K27" t="n">
-        <v>0.924708622779292</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458615</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M27" t="n">
-        <v>1.450971484313243</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382002609</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>1.362486586628677</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P27" t="n">
-        <v>652.8288508562974</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q27" t="n">
         <v>546.9319343358052</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.79365307401835</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K28" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L28" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M28" t="n">
-        <v>464.8776857071369</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N28" t="n">
-        <v>447.4607367688429</v>
+        <v>447.4607367688432</v>
       </c>
       <c r="O28" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P28" t="n">
         <v>351.5977150790518</v>
@@ -36834,22 +36834,22 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5898859709642</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L29" t="n">
-        <v>1.688989405824032</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397251</v>
+        <v>131.5275899794497</v>
       </c>
       <c r="N29" t="n">
         <v>1.909735609237032</v>
       </c>
       <c r="O29" t="n">
-        <v>315.7822671991755</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P29" t="n">
-        <v>758.5898859709641</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q29" t="n">
         <v>553.17476270115</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.52410592632186</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J30" t="n">
-        <v>328.3777231598352</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K30" t="n">
-        <v>652.6600438743666</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L30" t="n">
         <v>1.243384859458956</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K31" t="n">
         <v>278.0915730817343</v>
       </c>
       <c r="L31" t="n">
-        <v>423.1479911205235</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M31" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N31" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O31" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P31" t="n">
         <v>351.5977150790518</v>
@@ -37071,22 +37071,22 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K32" t="n">
-        <v>1.361442175632192</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L32" t="n">
-        <v>1.688989405823975</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M32" t="n">
-        <v>1.879326147397194</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N32" t="n">
-        <v>758.5898859709644</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O32" t="n">
-        <v>316.3305606327804</v>
+        <v>821.1066820719634</v>
       </c>
       <c r="P32" t="n">
-        <v>758.5898859709641</v>
+        <v>1.5390826658695</v>
       </c>
       <c r="Q32" t="n">
         <v>553.17476270115</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.52410592632186</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L33" t="n">
-        <v>758.5898859709642</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M33" t="n">
         <v>1.450971484313413</v>
@@ -37162,13 +37162,13 @@
         <v>1.489374382002779</v>
       </c>
       <c r="O33" t="n">
-        <v>758.5898859709644</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P33" t="n">
-        <v>12.29259035872587</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R33" t="n">
         <v>118.7118885465111</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K34" t="n">
         <v>278.0915730817343</v>
       </c>
       <c r="L34" t="n">
-        <v>423.1479911205235</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M34" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N34" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O34" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P34" t="n">
         <v>351.5977150790518</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K35" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L35" t="n">
-        <v>1.688989405823953</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397208</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N35" t="n">
-        <v>755.9817600801723</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O35" t="n">
-        <v>758.5898859709642</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P35" t="n">
-        <v>758.5898859709641</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q35" t="n">
         <v>553.17476270115</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.52410592632186</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J36" t="n">
-        <v>328.3777231598352</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K36" t="n">
-        <v>652.6600438743666</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458956</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K37" t="n">
         <v>278.0915730817343</v>
       </c>
       <c r="L37" t="n">
-        <v>423.1479911205235</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M37" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N37" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O37" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P37" t="n">
         <v>351.5977150790518</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K38" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L38" t="n">
-        <v>758.5898859709642</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397251</v>
+        <v>1170.614513228762</v>
       </c>
       <c r="N38" t="n">
-        <v>758.5898859709642</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O38" t="n">
-        <v>551.0998392307843</v>
+        <v>204.3904707063502</v>
       </c>
       <c r="P38" t="n">
-        <v>758.5898859709641</v>
+        <v>1.5390826658695</v>
       </c>
       <c r="Q38" t="n">
         <v>1.155786985397754</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.52410592632186</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794483</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L39" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M39" t="n">
-        <v>758.5898859709642</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N39" t="n">
-        <v>758.5898859709642</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O39" t="n">
-        <v>12.89603576087438</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P39" t="n">
-        <v>1.093515604708955</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R39" t="n">
         <v>118.7118885465111</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K40" t="n">
         <v>278.0915730817343</v>
       </c>
       <c r="L40" t="n">
-        <v>423.1479911205235</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M40" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N40" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O40" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P40" t="n">
         <v>351.5977150790518</v>
@@ -37782,22 +37782,22 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K41" t="n">
-        <v>1.361442175632192</v>
+        <v>844.1395148606604</v>
       </c>
       <c r="L41" t="n">
-        <v>757.3878780277664</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397251</v>
+        <v>126.7681241841606</v>
       </c>
       <c r="N41" t="n">
         <v>1.909735609237032</v>
       </c>
       <c r="O41" t="n">
-        <v>757.3878780277662</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P41" t="n">
-        <v>313.7543645204746</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q41" t="n">
         <v>553.17476270115</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.52410592632186</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794483</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L42" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M42" t="n">
-        <v>757.3878780277663</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N42" t="n">
-        <v>757.3878780277662</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O42" t="n">
-        <v>15.30005164727049</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604708955</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R42" t="n">
         <v>118.7118885465111</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.79365307401841</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K43" t="n">
         <v>278.0915730817343</v>
       </c>
       <c r="L43" t="n">
-        <v>423.1479911205234</v>
+        <v>423.1479911205235</v>
       </c>
       <c r="M43" t="n">
-        <v>464.8776857071369</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N43" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O43" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P43" t="n">
         <v>351.5977150790518</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.4385844755575</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983794</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K44" t="n">
-        <v>101.7933749940667</v>
+        <v>844.1395148606604</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8749962702756</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M44" t="n">
-        <v>757.3878780277663</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N44" t="n">
-        <v>757.3878780277664</v>
+        <v>126.7985336460006</v>
       </c>
       <c r="O44" t="n">
-        <v>757.3878780277664</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P44" t="n">
-        <v>115.0753383124752</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261508</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R44" t="n">
-        <v>50.2679998975741</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.74166304161236</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J45" t="n">
-        <v>368.2889420225627</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K45" t="n">
-        <v>69.13933862459135</v>
+        <v>652.6600438743668</v>
       </c>
       <c r="L45" t="n">
-        <v>92.966373105098</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M45" t="n">
-        <v>108.487372473114</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N45" t="n">
-        <v>111.3587104082258</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O45" t="n">
-        <v>101.871464333547</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461379</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q45" t="n">
-        <v>571.9252565406418</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R45" t="n">
-        <v>144.9401608746653</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>112.8326691813998</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K46" t="n">
-        <v>319.2383682279783</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L46" t="n">
-        <v>475.8017225619687</v>
+        <v>423.1479911205235</v>
       </c>
       <c r="M46" t="n">
-        <v>520.3936629142324</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N46" t="n">
-        <v>501.6566681222641</v>
+        <v>447.4607367688432</v>
       </c>
       <c r="O46" t="n">
-        <v>474.6456364229134</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P46" t="n">
-        <v>394.4315932187719</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q46" t="n">
-        <v>199.9496610361725</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
